--- a/dashboard/Data/All_lists.xlsx
+++ b/dashboard/Data/All_lists.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="345">
   <si>
     <t>Coal</t>
   </si>
@@ -1021,6 +1021,42 @@
   </si>
   <si>
     <t>Region1</t>
+  </si>
+  <si>
+    <t>All transportation by bus</t>
+  </si>
+  <si>
+    <t>TRA_BUS</t>
+  </si>
+  <si>
+    <t>All transportation by car</t>
+  </si>
+  <si>
+    <t>TRA_CAR</t>
+  </si>
+  <si>
+    <t>All transportation by motorcycle</t>
+  </si>
+  <si>
+    <t>TRA_MCY</t>
+  </si>
+  <si>
+    <t>All railway passenger transportation</t>
+  </si>
+  <si>
+    <t>TRA_TRAIN_PSNG</t>
+  </si>
+  <si>
+    <t>All railway freight transportation</t>
+  </si>
+  <si>
+    <t>TRA_TRAIN_FREIGHT</t>
+  </si>
+  <si>
+    <t>All truck transportation</t>
+  </si>
+  <si>
+    <t>TRA_TRUCK</t>
   </si>
 </sst>
 </file>
@@ -1378,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1705,9 +1741,57 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>26</v>
       </c>
     </row>
